--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
-    <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
-  </si>
-  <si>
     <t>User select Calendar Date</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>SUB-TOTAL:</t>
+  </si>
+  <si>
+    <t>FORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
   </si>
 </sst>
 </file>
@@ -1398,35 +1398,86 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,83 +1500,32 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1934,68 +1934,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
+      <c r="A1" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="138" t="str">
+      <c r="A2" s="106" t="str">
         <f>[1]B13!A2:AD2</f>
         <v>PROPOSED ANNUAL WORK PROGRAMME AND BUDGET 2021 (PROPOSED PLANNED BUDGET)</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
+      <c r="A3" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
@@ -2015,7 +2015,7 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -2031,16 +2031,16 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="142"/>
+      <c r="M5" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
     </row>
     <row r="6" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -2056,117 +2056,117 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="48"/>
       <c r="P6" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="144"/>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="104"/>
     </row>
     <row r="7" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="27" t="s">
+      <c r="B8" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="50"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="129" t="s">
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="112"/>
+      <c r="B9" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="133" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="128"/>
-      <c r="B9" s="135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="L9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="M9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="N9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="P9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="Q9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="134"/>
+      <c r="R9" s="118"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
@@ -2189,15 +2189,15 @@
       <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="122" t="s">
-        <v>21</v>
+      <c r="A11" s="124" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="10">
         <v>1011</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="60"/>
@@ -2216,13 +2216,13 @@
       <c r="S11" s="65"/>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="112"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="12">
         <v>1012</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="67"/>
@@ -2241,13 +2241,13 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="112"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="12">
         <v>3013</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="73"/>
@@ -2270,13 +2270,13 @@
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="12">
         <v>3014</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="73"/>
@@ -2295,13 +2295,13 @@
       <c r="S14" s="65"/>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="112"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="12">
         <v>3015</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="72"/>
       <c r="F15" s="73"/>
@@ -2320,13 +2320,13 @@
       <c r="S15" s="65"/>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="112"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="12">
         <v>3016</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="73"/>
@@ -2345,13 +2345,13 @@
       <c r="S16" s="65"/>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="112"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="12">
         <v>3017</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="73"/>
@@ -2370,13 +2370,13 @@
       <c r="S17" s="65"/>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="112"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="12">
         <v>3018</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="72"/>
       <c r="F18" s="73"/>
@@ -2395,13 +2395,13 @@
       <c r="S18" s="65"/>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="112"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="15">
         <v>3019</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="75"/>
       <c r="F19" s="76"/>
@@ -2420,15 +2420,15 @@
       <c r="S19" s="65"/>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="122" t="s">
-        <v>31</v>
+      <c r="A20" s="124" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="17">
         <v>1021</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="79"/>
       <c r="F20" s="80"/>
@@ -2447,13 +2447,13 @@
       <c r="S20" s="65"/>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="112"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="12">
         <v>3022</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="73"/>
@@ -2472,13 +2472,13 @@
       <c r="S21" s="65"/>
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="112"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="12">
         <v>3023</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="72"/>
       <c r="F22" s="73"/>
@@ -2497,13 +2497,13 @@
       <c r="S22" s="65"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="123"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="15">
         <v>3024</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
@@ -2522,15 +2522,15 @@
       <c r="S23" s="65"/>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="124" t="s">
-        <v>36</v>
+      <c r="A24" s="127" t="s">
+        <v>35</v>
       </c>
       <c r="B24" s="10">
         <v>1041</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="85"/>
       <c r="F24" s="61"/>
@@ -2549,13 +2549,13 @@
       <c r="S24" s="65"/>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="125"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="12">
         <v>1042</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="73"/>
@@ -2574,13 +2574,13 @@
       <c r="S25" s="65"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="125"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="12">
         <v>1043</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -2599,13 +2599,13 @@
       <c r="S26" s="65"/>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="125"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="12">
         <v>4044</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="68"/>
@@ -2624,13 +2624,13 @@
       <c r="S27" s="65"/>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="125"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="15">
         <v>4045</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="75"/>
       <c r="F28" s="76"/>
@@ -2649,15 +2649,15 @@
       <c r="S28" s="65"/>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="124" t="s">
-        <v>42</v>
+      <c r="A29" s="127" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="17">
         <v>1031</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="85"/>
       <c r="F29" s="62"/>
@@ -2676,13 +2676,13 @@
       <c r="S29" s="65"/>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="125"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="12">
         <v>1032</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="72"/>
       <c r="F30" s="86"/>
@@ -2701,13 +2701,13 @@
       <c r="S30" s="65"/>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="125"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="12">
         <v>4033</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="72"/>
       <c r="F31" s="73"/>
@@ -2726,13 +2726,13 @@
       <c r="S31" s="65"/>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="125"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="15">
         <v>4034</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="75"/>
       <c r="F32" s="76"/>
@@ -2751,15 +2751,15 @@
       <c r="S32" s="65"/>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="124" t="s">
-        <v>47</v>
+      <c r="A33" s="127" t="s">
+        <v>46</v>
       </c>
       <c r="B33" s="10">
         <v>1051</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="59"/>
       <c r="F33" s="60"/>
@@ -2778,13 +2778,13 @@
       <c r="S33" s="65"/>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="125"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="15">
         <v>6052</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="75"/>
       <c r="F34" s="76"/>
@@ -2803,15 +2803,15 @@
       <c r="S34" s="65"/>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="124" t="s">
-        <v>50</v>
+      <c r="A35" s="127" t="s">
+        <v>49</v>
       </c>
       <c r="B35" s="10">
         <v>1061</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="85"/>
       <c r="F35" s="61"/>
@@ -2830,13 +2830,13 @@
       <c r="S35" s="65"/>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="125"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="12">
         <v>6062</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="72"/>
       <c r="F36" s="73"/>
@@ -2855,13 +2855,13 @@
       <c r="S36" s="65"/>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="126"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="15">
         <v>6063</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="75"/>
       <c r="F37" s="76"/>
@@ -2880,15 +2880,15 @@
       <c r="S37" s="65"/>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="112" t="s">
-        <v>54</v>
+      <c r="A38" s="125" t="s">
+        <v>53</v>
       </c>
       <c r="B38" s="17">
         <v>1071</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="60"/>
@@ -2907,13 +2907,13 @@
       <c r="S38" s="65"/>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="112"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="12">
         <v>1072</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="72"/>
       <c r="F39" s="86"/>
@@ -2932,13 +2932,13 @@
       <c r="S39" s="65"/>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="112"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="12">
         <v>1073</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="72"/>
       <c r="F40" s="73"/>
@@ -2957,13 +2957,13 @@
       <c r="S40" s="65"/>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="112"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="12">
         <v>7074</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="72"/>
       <c r="F41" s="73"/>
@@ -2982,13 +2982,13 @@
       <c r="S41" s="65"/>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="112"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="15">
         <v>7075</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="75"/>
       <c r="F42" s="76"/>
@@ -3007,15 +3007,15 @@
       <c r="S42" s="65"/>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="113" t="s">
-        <v>82</v>
+      <c r="A43" s="130" t="s">
+        <v>81</v>
       </c>
       <c r="B43" s="10">
         <v>9091</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="85"/>
       <c r="F43" s="62"/>
@@ -3034,13 +3034,13 @@
       <c r="S43" s="65"/>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="114"/>
+      <c r="A44" s="131"/>
       <c r="B44" s="12">
         <v>9092</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" s="72"/>
       <c r="F44" s="73"/>
@@ -3059,13 +3059,13 @@
       <c r="S44" s="65"/>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="114"/>
+      <c r="A45" s="131"/>
       <c r="B45" s="12">
         <v>9093</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" s="72"/>
       <c r="F45" s="73"/>
@@ -3084,13 +3084,13 @@
       <c r="S45" s="65"/>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="114"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="12">
         <v>9194</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" s="72"/>
       <c r="F46" s="73"/>
@@ -3109,13 +3109,13 @@
       <c r="S46" s="65"/>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="114"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="12">
         <v>9195</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="72"/>
       <c r="F47" s="73"/>
@@ -3134,13 +3134,13 @@
       <c r="S47" s="65"/>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="115"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="15">
         <v>9500</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="75"/>
       <c r="F48" s="76"/>
@@ -3159,12 +3159,12 @@
       <c r="S48" s="65"/>
     </row>
     <row r="49" spans="1:21" s="98" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
+      <c r="A49" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="135"/>
       <c r="E49" s="92">
         <f>SUM(E11:E48)</f>
         <v>0</v>
@@ -3242,23 +3242,23 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>67</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
       <c r="I51" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
       <c r="M51" s="32"/>
       <c r="N51" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O51" s="31"/>
       <c r="P51" s="31"/>
@@ -3269,50 +3269,50 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="119" t="s">
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="119" t="s">
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="121"/>
-      <c r="N52" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="121"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="123"/>
     </row>
     <row r="53" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="36"/>
       <c r="I53" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
       <c r="M53" s="36"/>
       <c r="N53" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O53" s="35"/>
       <c r="P53" s="35"/>
@@ -3323,19 +3323,19 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="110"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="110"/>
+      <c r="E54" s="141"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="143"/>
+      <c r="N54" s="141"/>
+      <c r="O54" s="142"/>
+      <c r="P54" s="142"/>
+      <c r="Q54" s="143"/>
     </row>
     <row r="55" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
@@ -3346,11 +3346,11 @@
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="104"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="137"/>
       <c r="N55" s="38"/>
       <c r="O55" s="35"/>
       <c r="P55" s="35"/>
@@ -3365,11 +3365,11 @@
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="107"/>
+      <c r="I56" s="138"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="140"/>
       <c r="N56" s="43"/>
       <c r="O56" s="44"/>
       <c r="P56" s="44"/>
@@ -3697,18 +3697,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="N54:Q54"/>
     <mergeCell ref="N52:Q52"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A23"/>
@@ -3721,11 +3714,18 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="FormB15" sheetId="3" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1398,59 +1395,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,32 +1470,59 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1567,63 +1564,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="B7"/>
-      <sheetName val="B8"/>
-      <sheetName val="B9"/>
-      <sheetName val="B10"/>
-      <sheetName val="B11"/>
-      <sheetName val="B11(2)"/>
-      <sheetName val="B12"/>
-      <sheetName val="B13"/>
-      <sheetName val="ICA COMPARISON NIAH"/>
-      <sheetName val="(T1)B13-A RMU BATU NIAH"/>
-      <sheetName val="(T2)B14-A RMU BATU NIAH"/>
-      <sheetName val="(T2)B15-A RMU BATU NIAH"/>
-      <sheetName val="(T4)Desired Bdgt Niah"/>
-      <sheetName val="(T3)Month Cumutv B.Niah"/>
-      <sheetName val="ICA COMPARISON MIRI"/>
-      <sheetName val="(T1)B13-B RMU MIRI"/>
-      <sheetName val="(T2)B14-B RMU MIRI"/>
-      <sheetName val="(T2)B15-B RMU MIRI"/>
-      <sheetName val="(T4)Monthly Cum_RMU MIRI"/>
-      <sheetName val="(T3)Desired Budget_RMU MIRI"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>PROPOSED ANNUAL WORK PROGRAMME AND BUDGET 2021 (PROPOSED PLANNED BUDGET)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1916,7 +1856,7 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1934,68 +1874,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="str">
-        <f>[1]B13!A2:AD2</f>
-        <v>PROPOSED ANNUAL WORK PROGRAMME AND BUDGET 2021 (PROPOSED PLANNED BUDGET)</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
     </row>
     <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
     </row>
     <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
@@ -2031,16 +1969,16 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="108" t="s">
+      <c r="N5" s="143"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="110"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="144"/>
     </row>
     <row r="6" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -2063,67 +2001,67 @@
       <c r="P6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="104"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="138"/>
     </row>
     <row r="7" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
       <c r="Q7" s="27" t="s">
         <v>77</v>
       </c>
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="117" t="s">
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="133" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="112"/>
-      <c r="B9" s="119" t="s">
+      <c r="A9" s="128"/>
+      <c r="B9" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="120"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="29" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2104,7 @@
       <c r="Q9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="118"/>
+      <c r="R9" s="134"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
@@ -2189,7 +2127,7 @@
       <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="115" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="10">
@@ -2216,7 +2154,7 @@
       <c r="S11" s="65"/>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="125"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="12">
         <v>1012</v>
       </c>
@@ -2241,7 +2179,7 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="125"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="12">
         <v>3013</v>
       </c>
@@ -2270,7 +2208,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="125"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="12">
         <v>3014</v>
       </c>
@@ -2295,7 +2233,7 @@
       <c r="S14" s="65"/>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="125"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="12">
         <v>3015</v>
       </c>
@@ -2320,7 +2258,7 @@
       <c r="S15" s="65"/>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="125"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="12">
         <v>3016</v>
       </c>
@@ -2345,7 +2283,7 @@
       <c r="S16" s="65"/>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="125"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="12">
         <v>3017</v>
       </c>
@@ -2370,7 +2308,7 @@
       <c r="S17" s="65"/>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="125"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="12">
         <v>3018</v>
       </c>
@@ -2395,7 +2333,7 @@
       <c r="S18" s="65"/>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="125"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="15">
         <v>3019</v>
       </c>
@@ -2420,7 +2358,7 @@
       <c r="S19" s="65"/>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="115" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="17">
@@ -2447,7 +2385,7 @@
       <c r="S20" s="65"/>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="125"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="12">
         <v>3022</v>
       </c>
@@ -2472,7 +2410,7 @@
       <c r="S21" s="65"/>
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="125"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="12">
         <v>3023</v>
       </c>
@@ -2497,7 +2435,7 @@
       <c r="S22" s="65"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="126"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="15">
         <v>3024</v>
       </c>
@@ -2522,7 +2460,7 @@
       <c r="S23" s="65"/>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="118" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="10">
@@ -2549,7 +2487,7 @@
       <c r="S24" s="65"/>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="128"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="12">
         <v>1042</v>
       </c>
@@ -2574,7 +2512,7 @@
       <c r="S25" s="65"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="128"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="12">
         <v>1043</v>
       </c>
@@ -2599,7 +2537,7 @@
       <c r="S26" s="65"/>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="128"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="12">
         <v>4044</v>
       </c>
@@ -2624,7 +2562,7 @@
       <c r="S27" s="65"/>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="128"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="15">
         <v>4045</v>
       </c>
@@ -2649,7 +2587,7 @@
       <c r="S28" s="65"/>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="118" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="17">
@@ -2676,7 +2614,7 @@
       <c r="S29" s="65"/>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="128"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="12">
         <v>1032</v>
       </c>
@@ -2701,7 +2639,7 @@
       <c r="S30" s="65"/>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="128"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="12">
         <v>4033</v>
       </c>
@@ -2726,7 +2664,7 @@
       <c r="S31" s="65"/>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="128"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="15">
         <v>4034</v>
       </c>
@@ -2751,7 +2689,7 @@
       <c r="S32" s="65"/>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="127" t="s">
+      <c r="A33" s="118" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="10">
@@ -2778,7 +2716,7 @@
       <c r="S33" s="65"/>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="128"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="15">
         <v>6052</v>
       </c>
@@ -2803,7 +2741,7 @@
       <c r="S34" s="65"/>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="118" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="10">
@@ -2830,7 +2768,7 @@
       <c r="S35" s="65"/>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="128"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="12">
         <v>6062</v>
       </c>
@@ -2855,7 +2793,7 @@
       <c r="S36" s="65"/>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="129"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="15">
         <v>6063</v>
       </c>
@@ -2880,7 +2818,7 @@
       <c r="S37" s="65"/>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="116" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="17">
@@ -2907,7 +2845,7 @@
       <c r="S38" s="65"/>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="125"/>
+      <c r="A39" s="116"/>
       <c r="B39" s="12">
         <v>1072</v>
       </c>
@@ -2932,7 +2870,7 @@
       <c r="S39" s="65"/>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="125"/>
+      <c r="A40" s="116"/>
       <c r="B40" s="12">
         <v>1073</v>
       </c>
@@ -2957,7 +2895,7 @@
       <c r="S40" s="65"/>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="125"/>
+      <c r="A41" s="116"/>
       <c r="B41" s="12">
         <v>7074</v>
       </c>
@@ -2982,7 +2920,7 @@
       <c r="S41" s="65"/>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="125"/>
+      <c r="A42" s="116"/>
       <c r="B42" s="15">
         <v>7075</v>
       </c>
@@ -3007,7 +2945,7 @@
       <c r="S42" s="65"/>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="121" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="10">
@@ -3034,7 +2972,7 @@
       <c r="S43" s="65"/>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="131"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="12">
         <v>9092</v>
       </c>
@@ -3059,7 +2997,7 @@
       <c r="S44" s="65"/>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="131"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="12">
         <v>9093</v>
       </c>
@@ -3084,7 +3022,7 @@
       <c r="S45" s="65"/>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="131"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="12">
         <v>9194</v>
       </c>
@@ -3109,7 +3047,7 @@
       <c r="S46" s="65"/>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="131"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="12">
         <v>9195</v>
       </c>
@@ -3134,7 +3072,7 @@
       <c r="S47" s="65"/>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="132"/>
+      <c r="A48" s="123"/>
       <c r="B48" s="15">
         <v>9500</v>
       </c>
@@ -3159,12 +3097,12 @@
       <c r="S48" s="65"/>
     </row>
     <row r="49" spans="1:21" s="98" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="133" t="s">
+      <c r="A49" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="135"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="126"/>
       <c r="E49" s="92">
         <f>SUM(E11:E48)</f>
         <v>0</v>
@@ -3271,25 +3209,25 @@
       <c r="D52" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="121" t="s">
+      <c r="E52" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="121" t="s">
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="121" t="s">
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="O52" s="122"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="123"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="114"/>
     </row>
     <row r="53" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
@@ -3323,19 +3261,19 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="144"/>
-      <c r="M54" s="143"/>
-      <c r="N54" s="141"/>
-      <c r="O54" s="142"/>
-      <c r="P54" s="142"/>
-      <c r="Q54" s="143"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="110"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="110"/>
     </row>
     <row r="55" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
@@ -3346,11 +3284,11 @@
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="137"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="103"/>
+      <c r="L55" s="103"/>
+      <c r="M55" s="104"/>
       <c r="N55" s="38"/>
       <c r="O55" s="35"/>
       <c r="P55" s="35"/>
@@ -3365,11 +3303,11 @@
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="140"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="107"/>
       <c r="N56" s="43"/>
       <c r="O56" s="44"/>
       <c r="P56" s="44"/>
@@ -3697,11 +3635,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="N52:Q52"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A23"/>
@@ -3714,18 +3659,11 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="I52:M52"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="N54:Q54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
-  <si>
-    <t>User select Calendar Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>REVISION:</t>
   </si>
@@ -25,9 +22,6 @@
     <t>ISSUE DATE:</t>
   </si>
   <si>
-    <t>User to fill in the quantity according with limit of sum must equal to the 'Sub-total' Column Q</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
@@ -239,15 +233,6 @@
   </si>
   <si>
     <t>APPENDIX 15-A: RMU BATU NIAH</t>
-  </si>
-  <si>
-    <t>Ref from Template B13 Column AA</t>
-  </si>
-  <si>
-    <t>Revision calculated based on no of B15 created for the same RMU and Year</t>
-  </si>
-  <si>
-    <t>From B13, Col AA</t>
   </si>
   <si>
     <t>CREW DAY REQUIRED (WORK CALENDAR)</t>
@@ -281,7 +266,7 @@
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,11 +317,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -436,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,12 +443,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1086,30 +1060,30 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1173,45 +1147,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1230,19 +1201,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,16 +1225,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,46 +1339,46 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="4" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1422,13 +1393,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1458,34 +1429,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,29 +1468,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1856,7 +1815,7 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1865,120 +1824,114 @@
     <col min="2" max="2" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="0.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.81640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.54296875" style="99" customWidth="1"/>
+    <col min="5" max="7" width="10.54296875" style="98" customWidth="1"/>
     <col min="8" max="16" width="10.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7265625" style="99" customWidth="1"/>
+    <col min="17" max="17" width="25.7265625" style="98" customWidth="1"/>
     <col min="18" max="18" width="8.81640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
+      <c r="A1" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
     </row>
     <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
+      <c r="A3" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
     </row>
     <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28" t="s">
-        <v>75</v>
-      </c>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4"/>
     </row>
     <row r="5" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="143"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="144"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
     </row>
     <row r="6" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -1993,1172 +1946,1168 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="138"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="136"/>
     </row>
     <row r="7" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="127" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" s="49"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="50"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="128" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="126"/>
+      <c r="B9" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="C9" s="134"/>
+      <c r="D9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="133" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="128"/>
-      <c r="B9" s="135" t="s">
+      <c r="E9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="H9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="K9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="M9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="N9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="O9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="P9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="Q9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="134"/>
+      <c r="R9" s="132"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="58"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="115" t="s">
-        <v>20</v>
+      <c r="A11" s="114" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="10">
         <v>1011</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="63"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="65"/>
+      <c r="S11" s="64"/>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="116"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="12">
         <v>1012</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="64"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="63"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="65"/>
+      <c r="S12" s="64"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="116"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="12">
         <v>3013</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="64"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="63"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="65"/>
-      <c r="U13" s="74">
+      <c r="S13" s="64"/>
+      <c r="U13" s="73">
         <f>P13+O13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="116"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="12">
         <v>3014</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="64"/>
+        <v>22</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="63"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="65"/>
+      <c r="S14" s="64"/>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="116"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="12">
         <v>3015</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="64"/>
+        <v>23</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="65"/>
+      <c r="S15" s="64"/>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="116"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="12">
         <v>3016</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="64"/>
+        <v>24</v>
+      </c>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="65"/>
+      <c r="S16" s="64"/>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="116"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="12">
         <v>3017</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="64"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="63"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="65"/>
+      <c r="S17" s="64"/>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="116"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="12">
         <v>3018</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="64"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="65"/>
+      <c r="S18" s="64"/>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="116"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="15">
         <v>3019</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="64"/>
+        <v>27</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="65"/>
+      <c r="S19" s="64"/>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="115" t="s">
-        <v>30</v>
+      <c r="A20" s="114" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="17">
         <v>1021</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="81"/>
+        <v>29</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="80"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="65"/>
+      <c r="S20" s="64"/>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="116"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="12">
         <v>3022</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="81"/>
+        <v>30</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="65"/>
+      <c r="S21" s="64"/>
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="116"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="12">
         <v>3023</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="64"/>
+        <v>31</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="63"/>
       <c r="R22" s="14"/>
-      <c r="S22" s="65"/>
+      <c r="S22" s="64"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="117"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="15">
         <v>3024</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="64"/>
+        <v>32</v>
+      </c>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="63"/>
       <c r="R23" s="16"/>
-      <c r="S23" s="65"/>
+      <c r="S23" s="64"/>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="118" t="s">
-        <v>35</v>
+      <c r="A24" s="117" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="10">
         <v>1041</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="81"/>
+        <v>34</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="80"/>
       <c r="R24" s="13"/>
-      <c r="S24" s="65"/>
+      <c r="S24" s="64"/>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="119"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="12">
         <v>1042</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="63"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="65"/>
+      <c r="S25" s="64"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="119"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="12">
         <v>1043</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="64"/>
+        <v>36</v>
+      </c>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="63"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="65"/>
+      <c r="S26" s="64"/>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="119"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="12">
         <v>4044</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="64"/>
+        <v>37</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="63"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="65"/>
+      <c r="S27" s="64"/>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="119"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="15">
         <v>4045</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="64"/>
+        <v>38</v>
+      </c>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="63"/>
       <c r="R28" s="16"/>
-      <c r="S28" s="65"/>
+      <c r="S28" s="64"/>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="118" t="s">
-        <v>41</v>
+      <c r="A29" s="117" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="17">
         <v>1031</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="81"/>
+        <v>40</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="65"/>
+      <c r="S29" s="64"/>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="119"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="12">
         <v>1032</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="81"/>
+        <v>41</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="65"/>
+      <c r="S30" s="64"/>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="119"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="12">
         <v>4033</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="64"/>
+        <v>42</v>
+      </c>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="63"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="65"/>
+      <c r="S31" s="64"/>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="119"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="15">
         <v>4034</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="64"/>
+        <v>43</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="63"/>
       <c r="R32" s="16"/>
-      <c r="S32" s="65"/>
+      <c r="S32" s="64"/>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="118" t="s">
-        <v>46</v>
+      <c r="A33" s="117" t="s">
+        <v>44</v>
       </c>
       <c r="B33" s="10">
         <v>1051</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="64"/>
+        <v>45</v>
+      </c>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="63"/>
       <c r="R33" s="13"/>
-      <c r="S33" s="65"/>
+      <c r="S33" s="64"/>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="119"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="15">
         <v>6052</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="64"/>
+        <v>46</v>
+      </c>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="63"/>
       <c r="R34" s="16"/>
-      <c r="S34" s="65"/>
+      <c r="S34" s="64"/>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="118" t="s">
-        <v>49</v>
+      <c r="A35" s="117" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="10">
         <v>1061</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="81"/>
+        <v>48</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="80"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="65"/>
+      <c r="S35" s="64"/>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="119"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="12">
         <v>6062</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="64"/>
+        <v>49</v>
+      </c>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="63"/>
       <c r="R36" s="14"/>
-      <c r="S36" s="65"/>
+      <c r="S36" s="64"/>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="120"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="15">
         <v>6063</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="64"/>
+        <v>50</v>
+      </c>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="63"/>
       <c r="R37" s="16"/>
-      <c r="S37" s="65"/>
+      <c r="S37" s="64"/>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="116" t="s">
-        <v>53</v>
+      <c r="A38" s="115" t="s">
+        <v>51</v>
       </c>
       <c r="B38" s="17">
         <v>1071</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="64"/>
+        <v>52</v>
+      </c>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="63"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="65"/>
+      <c r="S38" s="64"/>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="116"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="12">
         <v>1072</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="64"/>
+        <v>53</v>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="63"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="65"/>
+      <c r="S39" s="64"/>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="116"/>
+      <c r="A40" s="115"/>
       <c r="B40" s="12">
         <v>1073</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="64"/>
+        <v>54</v>
+      </c>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="63"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="65"/>
+      <c r="S40" s="64"/>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="116"/>
+      <c r="A41" s="115"/>
       <c r="B41" s="12">
         <v>7074</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="64"/>
+        <v>55</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="63"/>
       <c r="R41" s="14"/>
-      <c r="S41" s="65"/>
+      <c r="S41" s="64"/>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="116"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="15">
         <v>7075</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="64"/>
+        <v>56</v>
+      </c>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="63"/>
       <c r="R42" s="16"/>
-      <c r="S42" s="65"/>
+      <c r="S42" s="64"/>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="121" t="s">
-        <v>81</v>
+      <c r="A43" s="120" t="s">
+        <v>76</v>
       </c>
       <c r="B43" s="10">
         <v>9091</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="64"/>
+        <v>57</v>
+      </c>
+      <c r="E43" s="84"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="63"/>
       <c r="R43" s="13"/>
-      <c r="S43" s="65"/>
+      <c r="S43" s="64"/>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="122"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="12">
         <v>9092</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="64"/>
+        <v>58</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="63"/>
       <c r="R44" s="14"/>
-      <c r="S44" s="65"/>
+      <c r="S44" s="64"/>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="122"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="12">
         <v>9093</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="E45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="63"/>
       <c r="R45" s="14"/>
-      <c r="S45" s="65"/>
+      <c r="S45" s="64"/>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="122"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="12">
         <v>9194</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="64"/>
+        <v>60</v>
+      </c>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="63"/>
       <c r="R46" s="14"/>
-      <c r="S46" s="65"/>
+      <c r="S46" s="64"/>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="122"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="12">
         <v>9195</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="64"/>
+        <v>61</v>
+      </c>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="63"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="65"/>
+      <c r="S47" s="64"/>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="123"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="15">
         <v>9500</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="75"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="64"/>
+        <v>62</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="63"/>
       <c r="R48" s="16"/>
-      <c r="S48" s="65"/>
-    </row>
-    <row r="49" spans="1:21" s="98" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="92">
+      <c r="S48" s="64"/>
+    </row>
+    <row r="49" spans="1:21" s="97" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="91">
         <f>SUM(E11:E48)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="93">
+      <c r="F49" s="92">
         <f t="shared" ref="F49:Q49" si="0">SUM(F11:F48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="93">
+      <c r="G49" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H49" s="94">
+      <c r="H49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="94">
+      <c r="I49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="94">
+      <c r="J49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K49" s="94">
+      <c r="K49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L49" s="94">
+      <c r="L49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="94">
+      <c r="M49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N49" s="94">
+      <c r="N49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O49" s="94">
+      <c r="O49" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P49" s="95">
+      <c r="P49" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="96">
+      <c r="Q49" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R49" s="16"/>
-      <c r="S49" s="97"/>
-    </row>
-    <row r="50" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S49" s="96"/>
+    </row>
+    <row r="50" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3172,148 +3121,148 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="T50" s="100"/>
-      <c r="U50" s="100"/>
-    </row>
-    <row r="51" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T50" s="99"/>
+      <c r="U50" s="99"/>
+    </row>
+    <row r="51" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="32"/>
-    </row>
-    <row r="52" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="31"/>
+    </row>
+    <row r="52" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="112" t="s">
+      <c r="J52" s="112"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="112"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="114"/>
-    </row>
-    <row r="53" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O52" s="112"/>
+      <c r="P52" s="112"/>
+      <c r="Q52" s="113"/>
+    </row>
+    <row r="53" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="36"/>
-    </row>
-    <row r="54" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D53" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="35"/>
+    </row>
+    <row r="54" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="110"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="110"/>
-    </row>
-    <row r="55" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="37"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="107"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="109"/>
+    </row>
+    <row r="55" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="36"/>
-    </row>
-    <row r="56" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="103"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="35"/>
+    </row>
+    <row r="56" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="107"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="45"/>
-    </row>
-    <row r="57" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="44"/>
+    </row>
+    <row r="57" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3328,7 +3277,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3343,7 +3292,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3358,7 +3307,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3373,7 +3322,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3388,7 +3337,7 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3403,7 +3352,7 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3418,7 +3367,7 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:21" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3433,7 +3382,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3449,10 +3398,10 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="102"/>
+      <c r="G66" s="101"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3462,10 +3411,10 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="102"/>
+      <c r="G67" s="101"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3475,10 +3424,10 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="102"/>
+      <c r="G68" s="101"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3487,10 +3436,10 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="102"/>
+      <c r="G69" s="101"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3499,11 +3448,11 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="102"/>
-      <c r="I70" s="102"/>
+      <c r="G70" s="101"/>
+      <c r="I70" s="101"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3512,10 +3461,10 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" s="99" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="102"/>
+      <c r="G71" s="101"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3525,123 +3474,120 @@
       <c r="P71" s="1"/>
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E72" s="99"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="99"/>
+      <c r="E72" s="98"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="98"/>
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E73" s="99"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="99"/>
+      <c r="E73" s="98"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="98"/>
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E74" s="99"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="99"/>
+      <c r="E74" s="98"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="98"/>
     </row>
     <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E75" s="99"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="99"/>
+      <c r="E75" s="98"/>
+      <c r="G75" s="101"/>
+      <c r="H75" s="98"/>
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E76" s="99"/>
-      <c r="G76" s="102"/>
+      <c r="E76" s="98"/>
+      <c r="G76" s="101"/>
     </row>
     <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E77" s="99"/>
-      <c r="G77" s="102"/>
+      <c r="E77" s="98"/>
+      <c r="G77" s="101"/>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E78" s="99"/>
-      <c r="G78" s="102"/>
+      <c r="E78" s="98"/>
+      <c r="G78" s="101"/>
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="99"/>
-      <c r="G79" s="102"/>
+      <c r="E79" s="98"/>
+      <c r="G79" s="101"/>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="99"/>
-      <c r="G80" s="102"/>
+      <c r="E80" s="98"/>
+      <c r="G80" s="101"/>
     </row>
     <row r="81" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G81" s="102"/>
+      <c r="G81" s="101"/>
     </row>
     <row r="82" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G82" s="102"/>
+      <c r="G82" s="101"/>
     </row>
     <row r="83" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G83" s="102"/>
+      <c r="G83" s="101"/>
     </row>
     <row r="84" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G84" s="102"/>
+      <c r="G84" s="101"/>
     </row>
     <row r="85" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G85" s="102"/>
+      <c r="G85" s="101"/>
     </row>
     <row r="86" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G86" s="102"/>
+      <c r="G86" s="101"/>
     </row>
     <row r="87" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G87" s="102"/>
+      <c r="G87" s="101"/>
     </row>
     <row r="88" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G88" s="102"/>
+      <c r="G88" s="101"/>
     </row>
     <row r="89" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G89" s="102"/>
+      <c r="G89" s="101"/>
     </row>
     <row r="90" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G90" s="102"/>
+      <c r="G90" s="101"/>
     </row>
     <row r="91" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G91" s="102"/>
+      <c r="G91" s="101"/>
     </row>
     <row r="92" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G92" s="102"/>
+      <c r="G92" s="101"/>
     </row>
     <row r="93" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G93" s="102"/>
+      <c r="G93" s="101"/>
     </row>
     <row r="94" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G94" s="102"/>
+      <c r="G94" s="101"/>
     </row>
     <row r="95" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G95" s="102"/>
+      <c r="G95" s="101"/>
     </row>
     <row r="96" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G96" s="102"/>
+      <c r="G96" s="101"/>
     </row>
     <row r="97" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G97" s="102"/>
+      <c r="G97" s="101"/>
     </row>
     <row r="98" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G98" s="102"/>
+      <c r="G98" s="101"/>
     </row>
     <row r="99" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G99" s="102"/>
+      <c r="G99" s="101"/>
     </row>
     <row r="100" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G100" s="102"/>
+      <c r="G100" s="101"/>
     </row>
     <row r="101" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G101" s="102"/>
+      <c r="G101" s="101"/>
     </row>
     <row r="102" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G102" s="102"/>
+      <c r="G102" s="101"/>
     </row>
     <row r="103" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G103" s="102"/>
+      <c r="G103" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="26">
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
     <mergeCell ref="A2:R2"/>
-    <mergeCell ref="E7:P7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:Q8"/>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB15.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omnex\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="19140" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="FormB15" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1083,7 +1088,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1186,15 +1191,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1366,32 +1362,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,47 +1452,44 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1520,6 +1528,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1568,7 +1579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1603,7 +1614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1815,7 +1826,7 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1824,75 +1835,75 @@
     <col min="2" max="2" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="0.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.81640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.54296875" style="98" customWidth="1"/>
+    <col min="5" max="7" width="10.54296875" style="95" customWidth="1"/>
     <col min="8" max="16" width="10.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7265625" style="98" customWidth="1"/>
+    <col min="17" max="17" width="25.7265625" style="95" customWidth="1"/>
     <col min="18" max="18" width="8.81640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
     </row>
     <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
     </row>
     <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
@@ -1946,16 +1957,16 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48" t="s">
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="136"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="100"/>
     </row>
     <row r="7" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
@@ -1975,42 +1986,42 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="49"/>
+      <c r="R7" s="46"/>
     </row>
     <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="131" t="s">
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="109" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="126"/>
-      <c r="B9" s="133" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="28" t="s">
         <v>5</v>
       </c>
@@ -2053,30 +2064,30 @@
       <c r="Q9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="132"/>
+      <c r="R9" s="110"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="57"/>
+      <c r="R10" s="54"/>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="10">
@@ -2086,24 +2097,24 @@
       <c r="D11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="63"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="64"/>
+      <c r="S11" s="61"/>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="115"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="12">
         <v>1012</v>
       </c>
@@ -2111,24 +2122,24 @@
       <c r="D12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="63"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="64"/>
+      <c r="S12" s="61"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="115"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="12">
         <v>3013</v>
       </c>
@@ -2136,28 +2147,28 @@
       <c r="D13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="63"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="64"/>
-      <c r="U13" s="73">
+      <c r="S13" s="61"/>
+      <c r="U13" s="70">
         <f>P13+O13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="115"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="12">
         <v>3014</v>
       </c>
@@ -2165,24 +2176,24 @@
       <c r="D14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="63"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="64"/>
+      <c r="S14" s="61"/>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="115"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="12">
         <v>3015</v>
       </c>
@@ -2190,24 +2201,24 @@
       <c r="D15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="63"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="64"/>
+      <c r="S15" s="61"/>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="115"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="12">
         <v>3016</v>
       </c>
@@ -2215,24 +2226,24 @@
       <c r="D16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="63"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="64"/>
+      <c r="S16" s="61"/>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="115"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="12">
         <v>3017</v>
       </c>
@@ -2240,24 +2251,24 @@
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="63"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="60"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="64"/>
+      <c r="S17" s="61"/>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="115"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="12">
         <v>3018</v>
       </c>
@@ -2265,24 +2276,24 @@
       <c r="D18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="63"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="64"/>
+      <c r="S18" s="61"/>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="115"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="15">
         <v>3019</v>
       </c>
@@ -2290,24 +2301,24 @@
       <c r="D19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="63"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="64"/>
+      <c r="S19" s="61"/>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="116" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="17">
@@ -2317,24 +2328,24 @@
       <c r="D20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="80"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="64"/>
+      <c r="S20" s="61"/>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="115"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="12">
         <v>3022</v>
       </c>
@@ -2342,24 +2353,24 @@
       <c r="D21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="80"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="64"/>
+      <c r="S21" s="61"/>
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="115"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="12">
         <v>3023</v>
       </c>
@@ -2367,24 +2378,24 @@
       <c r="D22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="63"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="14"/>
-      <c r="S22" s="64"/>
+      <c r="S22" s="61"/>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="116"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="15">
         <v>3024</v>
       </c>
@@ -2392,24 +2403,24 @@
       <c r="D23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="63"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="16"/>
-      <c r="S23" s="64"/>
+      <c r="S23" s="61"/>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="119" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="10">
@@ -2419,24 +2430,24 @@
       <c r="D24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="77"/>
       <c r="R24" s="13"/>
-      <c r="S24" s="64"/>
+      <c r="S24" s="61"/>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="118"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="12">
         <v>1042</v>
       </c>
@@ -2444,24 +2455,24 @@
       <c r="D25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="63"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="64"/>
+      <c r="S25" s="61"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="118"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="12">
         <v>1043</v>
       </c>
@@ -2469,24 +2480,24 @@
       <c r="D26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="63"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="60"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="64"/>
+      <c r="S26" s="61"/>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="118"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="12">
         <v>4044</v>
       </c>
@@ -2494,24 +2505,24 @@
       <c r="D27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="63"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="60"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="64"/>
+      <c r="S27" s="61"/>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="118"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="15">
         <v>4045</v>
       </c>
@@ -2519,24 +2530,24 @@
       <c r="D28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="63"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="60"/>
       <c r="R28" s="16"/>
-      <c r="S28" s="64"/>
+      <c r="S28" s="61"/>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="119" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="17">
@@ -2546,24 +2557,24 @@
       <c r="D29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="77"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="64"/>
+      <c r="S29" s="61"/>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="118"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="12">
         <v>1032</v>
       </c>
@@ -2571,24 +2582,24 @@
       <c r="D30" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="80"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="77"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="64"/>
+      <c r="S30" s="61"/>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="118"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="12">
         <v>4033</v>
       </c>
@@ -2596,24 +2607,24 @@
       <c r="D31" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="63"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="64"/>
+      <c r="S31" s="61"/>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="118"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="15">
         <v>4034</v>
       </c>
@@ -2621,24 +2632,24 @@
       <c r="D32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="63"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="16"/>
-      <c r="S32" s="64"/>
+      <c r="S32" s="61"/>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="119" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="10">
@@ -2648,24 +2659,24 @@
       <c r="D33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="63"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="13"/>
-      <c r="S33" s="64"/>
+      <c r="S33" s="61"/>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="118"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="15">
         <v>6052</v>
       </c>
@@ -2673,24 +2684,24 @@
       <c r="D34" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="63"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="60"/>
       <c r="R34" s="16"/>
-      <c r="S34" s="64"/>
+      <c r="S34" s="61"/>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="119" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="10">
@@ -2700,24 +2711,24 @@
       <c r="D35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="77"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="64"/>
+      <c r="S35" s="61"/>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="118"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="12">
         <v>6062</v>
       </c>
@@ -2725,24 +2736,24 @@
       <c r="D36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="63"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="60"/>
       <c r="R36" s="14"/>
-      <c r="S36" s="64"/>
+      <c r="S36" s="61"/>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="119"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="15">
         <v>6063</v>
       </c>
@@ -2750,24 +2761,24 @@
       <c r="D37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="63"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="60"/>
       <c r="R37" s="16"/>
-      <c r="S37" s="64"/>
+      <c r="S37" s="61"/>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="117" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="17">
@@ -2777,24 +2788,24 @@
       <c r="D38" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="63"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="60"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="64"/>
+      <c r="S38" s="61"/>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="115"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="12">
         <v>1072</v>
       </c>
@@ -2802,24 +2813,24 @@
       <c r="D39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="63"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="64"/>
+      <c r="S39" s="61"/>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="115"/>
+      <c r="A40" s="117"/>
       <c r="B40" s="12">
         <v>1073</v>
       </c>
@@ -2827,24 +2838,24 @@
       <c r="D40" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="63"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="64"/>
+      <c r="S40" s="61"/>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="115"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="12">
         <v>7074</v>
       </c>
@@ -2852,24 +2863,24 @@
       <c r="D41" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="63"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="60"/>
       <c r="R41" s="14"/>
-      <c r="S41" s="64"/>
+      <c r="S41" s="61"/>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="115"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="15">
         <v>7075</v>
       </c>
@@ -2877,24 +2888,24 @@
       <c r="D42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="63"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="60"/>
       <c r="R42" s="16"/>
-      <c r="S42" s="64"/>
+      <c r="S42" s="61"/>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="120" t="s">
+      <c r="A43" s="122" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="10">
@@ -2904,24 +2915,24 @@
       <c r="D43" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="63"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="60"/>
       <c r="R43" s="13"/>
-      <c r="S43" s="64"/>
+      <c r="S43" s="61"/>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="121"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="12">
         <v>9092</v>
       </c>
@@ -2929,24 +2940,24 @@
       <c r="D44" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="63"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="60"/>
       <c r="R44" s="14"/>
-      <c r="S44" s="64"/>
+      <c r="S44" s="61"/>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="121"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="12">
         <v>9093</v>
       </c>
@@ -2954,24 +2965,24 @@
       <c r="D45" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="63"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="60"/>
       <c r="R45" s="14"/>
-      <c r="S45" s="64"/>
+      <c r="S45" s="61"/>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="121"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="12">
         <v>9194</v>
       </c>
@@ -2979,24 +2990,24 @@
       <c r="D46" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="63"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="60"/>
       <c r="R46" s="14"/>
-      <c r="S46" s="64"/>
+      <c r="S46" s="61"/>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="121"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="12">
         <v>9195</v>
       </c>
@@ -3004,24 +3015,24 @@
       <c r="D47" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="63"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="60"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="64"/>
+      <c r="S47" s="61"/>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="122"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="15">
         <v>9500</v>
       </c>
@@ -3029,85 +3040,85 @@
       <c r="D48" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="63"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="60"/>
       <c r="R48" s="16"/>
-      <c r="S48" s="64"/>
-    </row>
-    <row r="49" spans="1:21" s="97" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="123" t="s">
+      <c r="S48" s="61"/>
+    </row>
+    <row r="49" spans="1:21" s="94" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="91">
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="88">
         <f>SUM(E11:E48)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="92">
+      <c r="F49" s="89">
         <f t="shared" ref="F49:Q49" si="0">SUM(F11:F48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="92">
+      <c r="G49" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H49" s="93">
+      <c r="H49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="93">
+      <c r="I49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="93">
+      <c r="J49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K49" s="93">
+      <c r="K49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L49" s="93">
+      <c r="L49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="93">
+      <c r="M49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N49" s="93">
+      <c r="N49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O49" s="93">
+      <c r="O49" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P49" s="94">
+      <c r="P49" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="95">
+      <c r="Q49" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R49" s="16"/>
-      <c r="S49" s="96"/>
-    </row>
-    <row r="50" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S49" s="93"/>
+    </row>
+    <row r="50" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3121,10 +3132,10 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="T50" s="99"/>
-      <c r="U50" s="99"/>
-    </row>
-    <row r="51" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T50" s="96"/>
+      <c r="U50" s="96"/>
+    </row>
+    <row r="51" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3151,34 +3162,34 @@
       <c r="P51" s="30"/>
       <c r="Q51" s="31"/>
     </row>
-    <row r="52" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="111" t="s">
+      <c r="E52" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="111" t="s">
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="112"/>
-      <c r="M52" s="113"/>
-      <c r="N52" s="111" t="s">
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="115"/>
+      <c r="N52" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="O52" s="112"/>
-      <c r="P52" s="112"/>
-      <c r="Q52" s="113"/>
-    </row>
-    <row r="53" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="115"/>
+    </row>
+    <row r="53" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3205,64 +3216,64 @@
       <c r="P53" s="34"/>
       <c r="Q53" s="35"/>
     </row>
-    <row r="54" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="37"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-      <c r="L54" s="110"/>
-      <c r="M54" s="109"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="109"/>
-    </row>
-    <row r="55" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="133"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="133"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="135"/>
+    </row>
+    <row r="55" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="103"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="35"/>
-    </row>
-    <row r="56" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="137"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="134"/>
+      <c r="P55" s="134"/>
+      <c r="Q55" s="135"/>
+    </row>
+    <row r="56" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="44"/>
-    </row>
-    <row r="57" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="41"/>
+    </row>
+    <row r="57" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3277,7 +3288,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3292,7 +3303,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3307,7 +3318,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3322,7 +3333,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3337,7 +3348,7 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3352,7 +3363,7 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3367,7 +3378,7 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:21" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3382,7 +3393,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3398,10 +3409,10 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="101"/>
+      <c r="G66" s="98"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3411,10 +3422,10 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="101"/>
+      <c r="G67" s="98"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3424,10 +3435,10 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="101"/>
+      <c r="G68" s="98"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3436,10 +3447,10 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="101"/>
+      <c r="G69" s="98"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3448,11 +3459,11 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="101"/>
-      <c r="I70" s="101"/>
+      <c r="G70" s="98"/>
+      <c r="I70" s="98"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3461,10 +3472,10 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" s="98" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" s="95" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="101"/>
+      <c r="G71" s="98"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3474,125 +3485,123 @@
       <c r="P71" s="1"/>
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E72" s="98"/>
-      <c r="G72" s="101"/>
-      <c r="H72" s="98"/>
+      <c r="E72" s="95"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="95"/>
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E73" s="98"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="98"/>
+      <c r="E73" s="95"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="95"/>
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E74" s="98"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="98"/>
+      <c r="E74" s="95"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="95"/>
     </row>
     <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E75" s="98"/>
-      <c r="G75" s="101"/>
-      <c r="H75" s="98"/>
+      <c r="E75" s="95"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="95"/>
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E76" s="98"/>
-      <c r="G76" s="101"/>
+      <c r="E76" s="95"/>
+      <c r="G76" s="98"/>
     </row>
     <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E77" s="98"/>
-      <c r="G77" s="101"/>
+      <c r="E77" s="95"/>
+      <c r="G77" s="98"/>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E78" s="98"/>
-      <c r="G78" s="101"/>
+      <c r="E78" s="95"/>
+      <c r="G78" s="98"/>
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="98"/>
-      <c r="G79" s="101"/>
+      <c r="E79" s="95"/>
+      <c r="G79" s="98"/>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="98"/>
-      <c r="G80" s="101"/>
+      <c r="E80" s="95"/>
+      <c r="G80" s="98"/>
     </row>
     <row r="81" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G81" s="101"/>
+      <c r="G81" s="98"/>
     </row>
     <row r="82" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G82" s="101"/>
+      <c r="G82" s="98"/>
     </row>
     <row r="83" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G83" s="101"/>
+      <c r="G83" s="98"/>
     </row>
     <row r="84" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G84" s="101"/>
+      <c r="G84" s="98"/>
     </row>
     <row r="85" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G85" s="101"/>
+      <c r="G85" s="98"/>
     </row>
     <row r="86" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G86" s="101"/>
+      <c r="G86" s="98"/>
     </row>
     <row r="87" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G87" s="101"/>
+      <c r="G87" s="98"/>
     </row>
     <row r="88" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G88" s="101"/>
+      <c r="G88" s="98"/>
     </row>
     <row r="89" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G89" s="101"/>
+      <c r="G89" s="98"/>
     </row>
     <row r="90" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G90" s="101"/>
+      <c r="G90" s="98"/>
     </row>
     <row r="91" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G91" s="101"/>
+      <c r="G91" s="98"/>
     </row>
     <row r="92" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G92" s="101"/>
+      <c r="G92" s="98"/>
     </row>
     <row r="93" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G93" s="101"/>
+      <c r="G93" s="98"/>
     </row>
     <row r="94" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G94" s="101"/>
+      <c r="G94" s="98"/>
     </row>
     <row r="95" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G95" s="101"/>
+      <c r="G95" s="98"/>
     </row>
     <row r="96" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G96" s="101"/>
+      <c r="G96" s="98"/>
     </row>
     <row r="97" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G97" s="101"/>
+      <c r="G97" s="98"/>
     </row>
     <row r="98" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G98" s="101"/>
+      <c r="G98" s="98"/>
     </row>
     <row r="99" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G99" s="101"/>
+      <c r="G99" s="98"/>
     </row>
     <row r="100" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G100" s="101"/>
+      <c r="G100" s="98"/>
     </row>
     <row r="101" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G101" s="101"/>
+      <c r="G101" s="98"/>
     </row>
     <row r="102" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G102" s="101"/>
+      <c r="G102" s="98"/>
     </row>
     <row r="103" spans="7:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G103" s="101"/>
+      <c r="G103" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="B9:C9"/>
+  <mergeCells count="28">
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="N55:Q55"/>
     <mergeCell ref="N52:Q52"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A23"/>
@@ -3605,11 +3614,15 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="I52:M52"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
